--- a/medicine/Psychotrope/Pichet/Pichet.xlsx
+++ b/medicine/Psychotrope/Pichet/Pichet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un pichet est un petit récipient, à col légèrement resserré, et disposant d'une anse et d'un bec verseur, permettant le service des boissons à table[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pichet est un petit récipient, à col légèrement resserré, et disposant d'une anse et d'un bec verseur, permettant le service des boissons à table.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le liquide servi on parle de : 
 pichet de lait ;
@@ -519,7 +533,7 @@
 pichet de gentiane ;
 pichet de vin ;
 pichet de bière, etc.
-Les pichets peuvent être en verre, céramique ou métal[1].
+Les pichets peuvent être en verre, céramique ou métal.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Récipients similaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un grand pichet à anse peut également être appelé broc[2].
-Un pichet à col étroit peut également être appelé carafe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un grand pichet à anse peut également être appelé broc.
+Un pichet à col étroit peut également être appelé carafe.
 </t>
         </is>
       </c>
